--- a/testdata/Login.xlsx
+++ b/testdata/Login.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
